--- a/biology/Zoologie/Amblyteles_armatorius/Amblyteles_armatorius.xlsx
+++ b/biology/Zoologie/Amblyteles_armatorius/Amblyteles_armatorius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amblyteles armatorius est une espèce d'insectes hyménoptères de la famille des Ichneumonidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Long de 12 à 16 mm, cet hyménoptère possède une tête noire, un thorax noir, sauf le scutellum jaunâtre, de même que les trochanters des pattes postérieures. Son abdomen est jaune et noir. Dépourvu d'aiguillon, il ne pique pas.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Paléarctique.
 </t>
@@ -573,7 +589,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve souvent sur les fleurs, en particulier d'apiacées (ombellifères), en été. L'imago hiverne à l'abri dans des cavités (grottes...). Les larves se développent en endoparasites de chenilles, en particulier de noctuelles.
 Sur les autres projets Wikimedia :
